--- a/Pixel calculation.xlsx
+++ b/Pixel calculation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobylam/Desktop/GitHub_Repos/greenone092.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F4E1D7-A307-E140-84E6-F665D46D426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4C40A3-27F3-9644-BA9D-55C084D7BB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{73E43446-AE08-B644-A5BE-E4F81831069B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37180" windowHeight="21100" xr2:uid="{73E43446-AE08-B644-A5BE-E4F81831069B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F034D5-FFCB-114D-97BB-CD51AD97A1B2}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -413,14 +413,14 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
         <f>C2</f>
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -428,14 +428,14 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1340</v>
+        <v>1500</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <f>SQRT(F2^2+349440)</f>
-        <v>630.74559055137274</v>
+        <f>SQRT(F2^2+$C$5)</f>
+        <v>692.01156059707557</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -449,8 +449,8 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <f>SQRT(F3^2+349440)</f>
-        <v>864.45358464176661</v>
+        <f>SQRT(F3^2+$C$5)</f>
+        <v>960.03124949139021</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -459,14 +459,14 @@
       </c>
       <c r="C5">
         <f>(C3^2-C2^2)/(C4-1)</f>
-        <v>349440</v>
+        <v>442780</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F7" si="0">SQRT(F4^2+349440)</f>
-        <v>1047.2440021313084</v>
+        <f t="shared" ref="F5:F7" si="0">SQRT(F4^2+$C$5)</f>
+        <v>1168.0924620936478</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -475,7 +475,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>1202.5639276146612</v>
+        <v>1344.3288288212821</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -484,7 +484,22 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1340</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
